--- a/public/templates/file_nhap_mau.xlsx
+++ b/public/templates/file_nhap_mau.xlsx
@@ -27,36 +27,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>DANH SÁCH TÀI LIỆU</t>
+  </si>
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Tiêu đề</t>
+    <t>Tiêu đề (*)</t>
   </si>
   <si>
-    <t>Tác giả</t>
+    <t>Tác giả (*)</t>
   </si>
   <si>
-    <t>Đồng tác giả</t>
+    <t>Đồng tác giả (nếu có)</t>
   </si>
   <si>
-    <t>Cán bộ hướng dẫn</t>
+    <t>Cán bộ hướng dẫn (nếu có)</t>
   </si>
   <si>
-    <t>Nguồn tài liệu</t>
+    <t>Nguồn tài liệu (*)</t>
   </si>
   <si>
-    <t>Loại tài liệu</t>
+    <t>Loại tài liệu (*)</t>
   </si>
   <si>
-    <t>Lĩnh vực</t>
+    <t>Lĩnh vực (nếu có)</t>
   </si>
   <si>
-    <t>Năm xuất bản</t>
+    <t>Năm xuất bản/Bảo vệ/Công bố (nếu có)</t>
   </si>
   <si>
-    <t>Nơi xuất bản</t>
+    <t>Nơi xuất bản/Bảo vệ/Công bố (nếu có)</t>
   </si>
   <si>
     <t>Mô tả</t>
@@ -75,7 +78,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,11 +93,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -241,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +260,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,12 +451,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,70 +575,67 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,77 +650,103 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,64 +1066,225 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="7.33333333333333" style="1" customWidth="1"/>
     <col min="2" max="3" width="19.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88888888888889" style="1"/>
+    <col min="12" max="12" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="2" ht="17.4" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="4" ht="27.6" spans="1:12">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="L4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="9:9">
-      <c r="I2" s="2"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
-    <row r="3" spans="9:9">
-      <c r="I3" s="2"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
